--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,145 +52,142 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>years</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>good</t>
@@ -199,52 +196,49 @@
     <t>new</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
@@ -253,13 +247,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -623,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4108527131782946</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3939393939393939</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.967741935483871</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +807,13 @@
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>557</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>557</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +833,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +859,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8653250773993808</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>559</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>559</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +885,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +911,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +937,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -964,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -972,13 +963,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -990,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -998,13 +989,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7152542372881356</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L12">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M12">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1016,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1050,13 +1041,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6883116883116883</v>
+        <v>0.671875</v>
       </c>
       <c r="L14">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1076,13 +1067,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1094,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1102,13 +1093,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.676923076923077</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>803</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>803</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1120,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1128,13 +1119,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6575342465753424</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1146,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1154,13 +1145,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6573033707865169</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L18">
-        <v>819</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>819</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1172,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>427</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1180,13 +1171,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6171428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1198,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1206,13 +1197,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1224,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1232,7 +1223,7 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L21">
         <v>38</v>
@@ -1250,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1258,13 +1249,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5964912280701754</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1276,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1284,13 +1275,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1302,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1310,13 +1301,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5769230769230769</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1328,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1336,13 +1327,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1354,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1362,13 +1353,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5686274509803921</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1380,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1388,13 +1379,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1406,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1414,13 +1405,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1432,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1440,13 +1431,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5526315789473685</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1458,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1466,13 +1457,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5449101796407185</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L30">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1484,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1492,13 +1483,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5416666666666666</v>
+        <v>0.51</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1510,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1518,13 +1509,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5061728395061729</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1536,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1544,13 +1535,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.5060240963855421</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1562,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1570,13 +1561,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L34">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1588,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1596,13 +1587,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4918032786885246</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1614,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1622,13 +1613,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4736842105263158</v>
+        <v>0.4007782101167315</v>
       </c>
       <c r="L36">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M36">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1640,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>70</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1648,13 +1639,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4473684210526316</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1666,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1674,13 +1665,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4337349397590362</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L38">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="M38">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1692,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>94</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1700,13 +1691,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4264705882352941</v>
+        <v>0.3657534246575342</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1726,13 +1717,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3823529411764706</v>
+        <v>0.3525179856115108</v>
       </c>
       <c r="L40">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1744,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>252</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1752,13 +1743,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3821917808219178</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L41">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1770,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>451</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1778,13 +1769,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3696498054474708</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L42">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1796,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1804,13 +1795,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3423423423423423</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1822,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1830,13 +1821,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3381294964028777</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1848,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1856,13 +1847,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3333333333333333</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1874,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1882,13 +1873,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3153153153153153</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1900,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1908,13 +1899,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3069306930693069</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1926,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1934,25 +1925,25 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2932330827067669</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1960,13 +1951,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2913907284768212</v>
+        <v>0.263724434876211</v>
       </c>
       <c r="L49">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="M49">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1978,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>107</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1986,13 +1977,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.271259418729817</v>
+        <v>0.2550335570469799</v>
       </c>
       <c r="L50">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="M50">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2004,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>677</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2012,13 +2003,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2684563758389262</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2030,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>109</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2038,13 +2029,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2631578947368421</v>
+        <v>0.2301790281329923</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="M52">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2056,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>154</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2064,13 +2055,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2397350993377483</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L53">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="M53">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2082,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>574</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2090,25 +2081,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2125480153649168</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L54">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M54">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>615</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2116,22 +2107,22 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2075471698113208</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="L55">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M55">
         <v>77</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>294</v>
@@ -2142,25 +2133,25 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1974921630094044</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="L56">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M56">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2168,13 +2159,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1890243902439024</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M57">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2186,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>133</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2194,13 +2185,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1718377088305489</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="L58">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M58">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2212,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>347</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2220,25 +2211,25 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1697416974169742</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="L59">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="M59">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2246,13 +2237,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1644736842105263</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L60">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M60">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2264,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>381</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2272,25 +2263,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1571753986332574</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L61">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N61">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>370</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2298,25 +2289,25 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.155</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N62">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>169</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2324,13 +2315,13 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1484184914841849</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L63">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M63">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2342,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>350</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2350,7 +2341,7 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1444444444444444</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L64">
         <v>39</v>
@@ -2368,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2376,25 +2367,25 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1443298969072165</v>
+        <v>0.1063218390804598</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="M65">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>249</v>
+        <v>622</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2402,25 +2393,25 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1370967741935484</v>
+        <v>0.0896358543417367</v>
       </c>
       <c r="L66">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="M66">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>214</v>
+        <v>975</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2428,7 +2419,7 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.1260504201680672</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L67">
         <v>30</v>
@@ -2446,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>208</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2454,25 +2445,25 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.09176029962546817</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L68">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>970</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2480,25 +2471,25 @@
         <v>78</v>
       </c>
       <c r="K69">
-        <v>0.09016393442622951</v>
+        <v>0.07592592592592592</v>
       </c>
       <c r="L69">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M69">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>333</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2506,103 +2497,25 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.08751793400286945</v>
+        <v>0.06147186147186147</v>
       </c>
       <c r="L70">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M70">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N70">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K71">
-        <v>0.07393715341959335</v>
-      </c>
-      <c r="L71">
-        <v>40</v>
-      </c>
-      <c r="M71">
-        <v>41</v>
-      </c>
-      <c r="N71">
-        <v>0.98</v>
-      </c>
-      <c r="O71">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K72">
-        <v>0.0673076923076923</v>
-      </c>
-      <c r="L72">
-        <v>35</v>
-      </c>
-      <c r="M72">
-        <v>37</v>
-      </c>
-      <c r="N72">
-        <v>0.95</v>
-      </c>
-      <c r="O72">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K73">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="L73">
-        <v>66</v>
-      </c>
-      <c r="M73">
-        <v>68</v>
-      </c>
-      <c r="N73">
-        <v>0.97</v>
-      </c>
-      <c r="O73">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
